--- a/صيدليات دكتور مصطفي طلعت_2026-01-10_20-42.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-10_20-42.xlsx
@@ -203,6 +203,9 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
+    <t>8:2</t>
+  </si>
+  <si>
     <t>E-MOX 500MG 16 CAPS</t>
   </si>
   <si>
@@ -302,6 +305,9 @@
     <t>LAGAR 15 ML DROPS</t>
   </si>
   <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
     <t>LI.LI VAGINAL WASH 250 ML</t>
   </si>
   <si>
@@ -372,6 +378,9 @@
   </si>
   <si>
     <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
   </si>
   <si>
     <t>OVUNHIPITA 75MCG 28 TABLETS</t>
@@ -1781,17 +1790,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -2171,17 +2180,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -2189,7 +2198,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -2197,7 +2206,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
@@ -2215,7 +2224,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -2241,7 +2250,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -2267,7 +2276,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -2293,7 +2302,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -2319,7 +2328,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -2345,7 +2354,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2353,7 +2362,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
@@ -2371,7 +2380,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2379,7 +2388,7 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
@@ -2397,7 +2406,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2405,7 +2414,7 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
@@ -2423,7 +2432,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2449,7 +2458,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2475,7 +2484,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2501,7 +2510,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2527,7 +2536,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2553,7 +2562,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2579,7 +2588,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2605,7 +2614,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2613,7 +2622,7 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
@@ -2631,7 +2640,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2657,7 +2666,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2683,7 +2692,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2709,7 +2718,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2735,7 +2744,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2761,7 +2770,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2787,7 +2796,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2813,7 +2822,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2839,7 +2848,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2847,7 +2856,7 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
@@ -2865,7 +2874,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2891,7 +2900,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2899,17 +2908,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>69.900000000000006</v>
+        <v>22</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2917,7 +2926,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2925,17 +2934,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>32</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2951,17 +2960,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2969,7 +2978,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2977,17 +2986,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>27.329999999999998</v>
+        <v>75</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2995,7 +3004,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -3003,17 +3012,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>218.69999999999999</v>
+        <v>27.329999999999998</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3021,7 +3030,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -3029,17 +3038,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>0</v>
+        <v>218.69999999999999</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -3047,7 +3056,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -3055,17 +3064,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>277.5</v>
+        <v>0</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -3073,7 +3082,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -3081,13 +3090,13 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>31</v>
+        <v>277.5</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
@@ -3099,7 +3108,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -3107,13 +3116,13 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>247</v>
+        <v>31</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
@@ -3125,7 +3134,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -3133,13 +3142,13 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>31</v>
+        <v>247</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
@@ -3151,7 +3160,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -3159,13 +3168,13 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
@@ -3177,7 +3186,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -3185,13 +3194,13 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
@@ -3203,7 +3212,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -3211,17 +3220,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -3237,7 +3246,7 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
@@ -3247,7 +3256,7 @@
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3255,7 +3264,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -3263,17 +3272,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3281,7 +3290,7 @@
         <v>79</v>
       </c>
       <c t="s" r="B82" s="7">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -3289,13 +3298,13 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>62.549999999999997</v>
+        <v>24</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
@@ -3307,7 +3316,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3321,7 +3330,7 @@
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>240</v>
+        <v>62.549999999999997</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
@@ -3333,7 +3342,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B84" s="7">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3347,7 +3356,7 @@
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>85</v>
+        <v>240</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
@@ -3359,7 +3368,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3367,17 +3376,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3393,17 +3402,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3411,7 +3420,7 @@
         <v>84</v>
       </c>
       <c t="s" r="B87" s="7">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -3419,17 +3428,17 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3437,7 +3446,7 @@
         <v>85</v>
       </c>
       <c t="s" r="B88" s="7">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -3445,17 +3454,17 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3463,7 +3472,7 @@
         <v>86</v>
       </c>
       <c t="s" r="B89" s="7">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -3471,17 +3480,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3497,17 +3506,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3523,17 +3532,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3541,7 +3550,7 @@
         <v>89</v>
       </c>
       <c t="s" r="B92" s="7">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3549,17 +3558,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3567,7 +3576,7 @@
         <v>90</v>
       </c>
       <c t="s" r="B93" s="7">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -3575,17 +3584,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3593,7 +3602,7 @@
         <v>91</v>
       </c>
       <c t="s" r="B94" s="7">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3601,17 +3610,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3619,7 +3628,7 @@
         <v>92</v>
       </c>
       <c t="s" r="B95" s="7">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -3627,17 +3636,17 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>56.399999999999999</v>
+        <v>75</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1">
@@ -3653,17 +3662,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3679,17 +3688,17 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>30</v>
+        <v>56.399999999999999</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3697,7 +3706,7 @@
         <v>95</v>
       </c>
       <c t="s" r="B98" s="7">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -3705,17 +3714,17 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" ht="24.75" customHeight="1">
@@ -3723,7 +3732,7 @@
         <v>96</v>
       </c>
       <c t="s" r="B99" s="7">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -3731,13 +3740,13 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
@@ -3749,7 +3758,7 @@
         <v>97</v>
       </c>
       <c t="s" r="B100" s="7">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -3757,13 +3766,13 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>65.75</v>
+        <v>85</v>
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
@@ -3775,7 +3784,7 @@
         <v>98</v>
       </c>
       <c t="s" r="B101" s="7">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -3783,17 +3792,17 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="M101" s="9"/>
       <c t="s" r="N101" s="7">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -3801,7 +3810,7 @@
         <v>99</v>
       </c>
       <c t="s" r="B102" s="7">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -3815,7 +3824,7 @@
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>140</v>
+        <v>65.75</v>
       </c>
       <c r="M102" s="9"/>
       <c t="s" r="N102" s="7">
@@ -3827,7 +3836,7 @@
         <v>100</v>
       </c>
       <c t="s" r="B103" s="7">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -3835,17 +3844,17 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="M103" s="9"/>
       <c t="s" r="N103" s="7">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104" ht="24.75" customHeight="1">
@@ -3853,7 +3862,7 @@
         <v>101</v>
       </c>
       <c t="s" r="B104" s="7">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -3861,17 +3870,17 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="M104" s="9"/>
       <c t="s" r="N104" s="7">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" ht="25.5" customHeight="1">
@@ -3879,7 +3888,7 @@
         <v>102</v>
       </c>
       <c t="s" r="B105" s="7">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -3893,7 +3902,7 @@
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>249.47999999999999</v>
+        <v>90</v>
       </c>
       <c r="M105" s="9"/>
       <c t="s" r="N105" s="7">
@@ -3905,7 +3914,7 @@
         <v>103</v>
       </c>
       <c t="s" r="B106" s="7">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -3913,17 +3922,17 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="M106" s="9"/>
       <c t="s" r="N106" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -3931,7 +3940,7 @@
         <v>104</v>
       </c>
       <c t="s" r="B107" s="7">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -3939,17 +3948,17 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>143</v>
+        <v>9</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>140</v>
+        <v>249.47999999999999</v>
       </c>
       <c r="M107" s="9"/>
       <c t="s" r="N107" s="7">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" ht="25.5" customHeight="1">
@@ -3971,7 +3980,7 @@
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="M108" s="9"/>
       <c t="s" r="N108" s="7">
@@ -3991,17 +4000,17 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="M109" s="9"/>
       <c t="s" r="N109" s="7">
-        <v>47</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" ht="25.5" customHeight="1">
@@ -4009,7 +4018,7 @@
         <v>107</v>
       </c>
       <c t="s" r="B110" s="7">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -4017,17 +4026,17 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c t="s" r="H110" s="8">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="M110" s="9"/>
       <c t="s" r="N110" s="7">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" ht="24.75" customHeight="1">
@@ -4035,7 +4044,7 @@
         <v>108</v>
       </c>
       <c t="s" r="B111" s="7">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -4043,17 +4052,17 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="M111" s="9"/>
       <c t="s" r="N111" s="7">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -4061,7 +4070,7 @@
         <v>109</v>
       </c>
       <c t="s" r="B112" s="7">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -4069,17 +4078,17 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c t="s" r="H112" s="8">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="M112" s="9"/>
       <c t="s" r="N112" s="7">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113" ht="25.5" customHeight="1">
@@ -4087,7 +4096,7 @@
         <v>110</v>
       </c>
       <c t="s" r="B113" s="7">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -4095,17 +4104,17 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c t="s" r="H113" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="M113" s="9"/>
       <c t="s" r="N113" s="7">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" ht="24.75" customHeight="1">
@@ -4113,7 +4122,7 @@
         <v>111</v>
       </c>
       <c t="s" r="B114" s="7">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -4121,17 +4130,17 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c t="s" r="H114" s="8">
-        <v>143</v>
+        <v>9</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="M114" s="9"/>
       <c t="s" r="N114" s="7">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" ht="25.5" customHeight="1">
@@ -4139,7 +4148,7 @@
         <v>112</v>
       </c>
       <c t="s" r="B115" s="7">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -4147,17 +4156,17 @@
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c t="s" r="H115" s="8">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="M115" s="9"/>
       <c t="s" r="N115" s="7">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="116" ht="24.75" customHeight="1">
@@ -4165,7 +4174,7 @@
         <v>113</v>
       </c>
       <c t="s" r="B116" s="7">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -4173,17 +4182,17 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c t="s" r="H116" s="8">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="9">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="M116" s="9"/>
       <c t="s" r="N116" s="7">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -4191,7 +4200,7 @@
         <v>114</v>
       </c>
       <c t="s" r="B117" s="7">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
@@ -4199,17 +4208,17 @@
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c t="s" r="H117" s="8">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="9">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="M117" s="9"/>
       <c t="s" r="N117" s="7">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118" ht="25.5" customHeight="1">
@@ -4217,7 +4226,7 @@
         <v>115</v>
       </c>
       <c t="s" r="B118" s="7">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
@@ -4225,17 +4234,17 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c t="s" r="H118" s="8">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
       <c r="L118" s="9">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="M118" s="9"/>
       <c t="s" r="N118" s="7">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119" ht="24.75" customHeight="1">
@@ -4243,7 +4252,7 @@
         <v>116</v>
       </c>
       <c t="s" r="B119" s="7">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
@@ -4251,17 +4260,17 @@
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c t="s" r="H119" s="8">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
       <c r="L119" s="9">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="M119" s="9"/>
       <c t="s" r="N119" s="7">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="120" ht="25.5" customHeight="1">
@@ -4269,7 +4278,7 @@
         <v>117</v>
       </c>
       <c t="s" r="B120" s="7">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
@@ -4277,17 +4286,17 @@
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c t="s" r="H120" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
       <c r="L120" s="9">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="M120" s="9"/>
       <c t="s" r="N120" s="7">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="121" ht="24.75" customHeight="1">
@@ -4295,7 +4304,7 @@
         <v>118</v>
       </c>
       <c t="s" r="B121" s="7">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
@@ -4303,17 +4312,17 @@
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c t="s" r="H121" s="8">
-        <v>158</v>
+        <v>29</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
       <c r="L121" s="9">
-        <v>9.9499999999999993</v>
+        <v>26</v>
       </c>
       <c r="M121" s="9"/>
       <c t="s" r="N121" s="7">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -4329,13 +4338,13 @@
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c t="s" r="H122" s="8">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
       <c r="L122" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M122" s="9"/>
       <c t="s" r="N122" s="7">
@@ -4355,13 +4364,13 @@
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c t="s" r="H123" s="8">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
       <c r="L123" s="9">
-        <v>224</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="M123" s="9"/>
       <c t="s" r="N123" s="7">
@@ -4373,7 +4382,7 @@
         <v>121</v>
       </c>
       <c t="s" r="B124" s="7">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
@@ -4381,17 +4390,17 @@
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c t="s" r="H124" s="8">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
       <c r="K124" s="8"/>
       <c r="L124" s="9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M124" s="9"/>
       <c t="s" r="N124" s="7">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125" ht="25.5" customHeight="1">
@@ -4399,7 +4408,7 @@
         <v>122</v>
       </c>
       <c t="s" r="B125" s="7">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
@@ -4407,17 +4416,17 @@
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c t="s" r="H125" s="8">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I125" s="8"/>
       <c r="J125" s="8"/>
       <c r="K125" s="8"/>
       <c r="L125" s="9">
-        <v>25</v>
+        <v>224</v>
       </c>
       <c r="M125" s="9"/>
       <c t="s" r="N125" s="7">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126" ht="24.75" customHeight="1">
@@ -4425,7 +4434,7 @@
         <v>123</v>
       </c>
       <c t="s" r="B126" s="7">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
@@ -4433,17 +4442,17 @@
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
       <c t="s" r="H126" s="8">
-        <v>164</v>
+        <v>17</v>
       </c>
       <c r="I126" s="8"/>
       <c r="J126" s="8"/>
       <c r="K126" s="8"/>
       <c r="L126" s="9">
-        <v>58.200000000000003</v>
+        <v>31</v>
       </c>
       <c r="M126" s="9"/>
       <c t="s" r="N126" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -4459,7 +4468,7 @@
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
       <c t="s" r="H127" s="8">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I127" s="8"/>
       <c r="J127" s="8"/>
@@ -4485,13 +4494,13 @@
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c t="s" r="H128" s="8">
-        <v>47</v>
+        <v>167</v>
       </c>
       <c r="I128" s="8"/>
       <c r="J128" s="8"/>
       <c r="K128" s="8"/>
       <c r="L128" s="9">
-        <v>90</v>
+        <v>58.200000000000003</v>
       </c>
       <c r="M128" s="9"/>
       <c t="s" r="N128" s="7">
@@ -4503,7 +4512,7 @@
         <v>126</v>
       </c>
       <c t="s" r="B129" s="7">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
@@ -4511,13 +4520,13 @@
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
       <c t="s" r="H129" s="8">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="I129" s="8"/>
       <c r="J129" s="8"/>
       <c r="K129" s="8"/>
       <c r="L129" s="9">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="M129" s="9"/>
       <c t="s" r="N129" s="7">
@@ -4529,7 +4538,7 @@
         <v>127</v>
       </c>
       <c t="s" r="B130" s="7">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
@@ -4537,13 +4546,13 @@
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
       <c t="s" r="H130" s="8">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="I130" s="8"/>
       <c r="J130" s="8"/>
       <c r="K130" s="8"/>
       <c r="L130" s="9">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="M130" s="9"/>
       <c t="s" r="N130" s="7">
@@ -4555,7 +4564,7 @@
         <v>128</v>
       </c>
       <c t="s" r="B131" s="7">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
@@ -4563,13 +4572,13 @@
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
       <c t="s" r="H131" s="8">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="I131" s="8"/>
       <c r="J131" s="8"/>
       <c r="K131" s="8"/>
       <c r="L131" s="9">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="M131" s="9"/>
       <c t="s" r="N131" s="7">
@@ -4581,7 +4590,7 @@
         <v>129</v>
       </c>
       <c t="s" r="B132" s="7">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
@@ -4589,13 +4598,13 @@
       <c r="F132" s="7"/>
       <c r="G132" s="7"/>
       <c t="s" r="H132" s="8">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="I132" s="8"/>
       <c r="J132" s="8"/>
       <c r="K132" s="8"/>
       <c r="L132" s="9">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="M132" s="9"/>
       <c t="s" r="N132" s="7">
@@ -4607,7 +4616,7 @@
         <v>130</v>
       </c>
       <c t="s" r="B133" s="7">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
@@ -4615,13 +4624,13 @@
       <c r="F133" s="7"/>
       <c r="G133" s="7"/>
       <c t="s" r="H133" s="8">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="I133" s="8"/>
       <c r="J133" s="8"/>
       <c r="K133" s="8"/>
       <c r="L133" s="9">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="M133" s="9"/>
       <c t="s" r="N133" s="7">
@@ -4633,7 +4642,7 @@
         <v>131</v>
       </c>
       <c t="s" r="B134" s="7">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
@@ -4641,17 +4650,17 @@
       <c r="F134" s="7"/>
       <c r="G134" s="7"/>
       <c t="s" r="H134" s="8">
-        <v>173</v>
+        <v>50</v>
       </c>
       <c r="I134" s="8"/>
       <c r="J134" s="8"/>
       <c r="K134" s="8"/>
       <c r="L134" s="9">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="M134" s="9"/>
       <c t="s" r="N134" s="7">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="135" ht="25.5" customHeight="1">
@@ -4667,17 +4676,17 @@
       <c r="F135" s="7"/>
       <c r="G135" s="7"/>
       <c t="s" r="H135" s="8">
-        <v>175</v>
+        <v>9</v>
       </c>
       <c r="I135" s="8"/>
       <c r="J135" s="8"/>
       <c r="K135" s="8"/>
       <c r="L135" s="9">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="M135" s="9"/>
       <c t="s" r="N135" s="7">
-        <v>176</v>
+        <v>20</v>
       </c>
     </row>
     <row r="136" ht="24.75" customHeight="1">
@@ -4685,7 +4694,7 @@
         <v>133</v>
       </c>
       <c t="s" r="B136" s="7">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
@@ -4693,17 +4702,17 @@
       <c r="F136" s="7"/>
       <c r="G136" s="7"/>
       <c t="s" r="H136" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I136" s="8"/>
       <c r="J136" s="8"/>
       <c r="K136" s="8"/>
       <c r="L136" s="9">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="M136" s="9"/>
       <c t="s" r="N136" s="7">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -4711,7 +4720,7 @@
         <v>134</v>
       </c>
       <c t="s" r="B137" s="7">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
@@ -4719,17 +4728,17 @@
       <c r="F137" s="7"/>
       <c r="G137" s="7"/>
       <c t="s" r="H137" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I137" s="8"/>
       <c r="J137" s="8"/>
       <c r="K137" s="8"/>
       <c r="L137" s="9">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="M137" s="9"/>
       <c t="s" r="N137" s="7">
-        <v>20</v>
+        <v>179</v>
       </c>
     </row>
     <row r="138" ht="25.5" customHeight="1">
@@ -4745,17 +4754,17 @@
       <c r="F138" s="7"/>
       <c r="G138" s="7"/>
       <c t="s" r="H138" s="8">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="I138" s="8"/>
       <c r="J138" s="8"/>
       <c r="K138" s="8"/>
       <c r="L138" s="9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M138" s="9"/>
       <c t="s" r="N138" s="7">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="139" ht="24.75" customHeight="1">
@@ -4771,13 +4780,13 @@
       <c r="F139" s="7"/>
       <c r="G139" s="7"/>
       <c t="s" r="H139" s="8">
-        <v>11</v>
+        <v>182</v>
       </c>
       <c r="I139" s="8"/>
       <c r="J139" s="8"/>
       <c r="K139" s="8"/>
       <c r="L139" s="9">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="M139" s="9"/>
       <c t="s" r="N139" s="7">
@@ -4789,7 +4798,7 @@
         <v>137</v>
       </c>
       <c t="s" r="B140" s="7">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C140" s="7"/>
       <c r="D140" s="7"/>
@@ -4797,13 +4806,13 @@
       <c r="F140" s="7"/>
       <c r="G140" s="7"/>
       <c t="s" r="H140" s="8">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="I140" s="8"/>
       <c r="J140" s="8"/>
       <c r="K140" s="8"/>
       <c r="L140" s="9">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="M140" s="9"/>
       <c t="s" r="N140" s="7">
@@ -4815,7 +4824,7 @@
         <v>138</v>
       </c>
       <c t="s" r="B141" s="7">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C141" s="7"/>
       <c r="D141" s="7"/>
@@ -4823,13 +4832,13 @@
       <c r="F141" s="7"/>
       <c r="G141" s="7"/>
       <c t="s" r="H141" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I141" s="8"/>
       <c r="J141" s="8"/>
       <c r="K141" s="8"/>
       <c r="L141" s="9">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="M141" s="9"/>
       <c t="s" r="N141" s="7">
@@ -4841,7 +4850,7 @@
         <v>139</v>
       </c>
       <c t="s" r="B142" s="7">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C142" s="7"/>
       <c r="D142" s="7"/>
@@ -4849,13 +4858,13 @@
       <c r="F142" s="7"/>
       <c r="G142" s="7"/>
       <c t="s" r="H142" s="8">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I142" s="8"/>
       <c r="J142" s="8"/>
       <c r="K142" s="8"/>
       <c r="L142" s="9">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="M142" s="9"/>
       <c t="s" r="N142" s="7">
@@ -4867,7 +4876,7 @@
         <v>140</v>
       </c>
       <c t="s" r="B143" s="7">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C143" s="7"/>
       <c r="D143" s="7"/>
@@ -4875,13 +4884,13 @@
       <c r="F143" s="7"/>
       <c r="G143" s="7"/>
       <c t="s" r="H143" s="8">
-        <v>186</v>
+        <v>9</v>
       </c>
       <c r="I143" s="8"/>
       <c r="J143" s="8"/>
       <c r="K143" s="8"/>
       <c r="L143" s="9">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="M143" s="9"/>
       <c t="s" r="N143" s="7">
@@ -4901,13 +4910,13 @@
       <c r="F144" s="7"/>
       <c r="G144" s="7"/>
       <c t="s" r="H144" s="8">
-        <v>188</v>
+        <v>20</v>
       </c>
       <c r="I144" s="8"/>
       <c r="J144" s="8"/>
       <c r="K144" s="8"/>
       <c r="L144" s="9">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="M144" s="9"/>
       <c t="s" r="N144" s="7">
@@ -4919,7 +4928,7 @@
         <v>142</v>
       </c>
       <c t="s" r="B145" s="7">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C145" s="7"/>
       <c r="D145" s="7"/>
@@ -4927,13 +4936,13 @@
       <c r="F145" s="7"/>
       <c r="G145" s="7"/>
       <c t="s" r="H145" s="8">
-        <v>8</v>
+        <v>189</v>
       </c>
       <c r="I145" s="8"/>
       <c r="J145" s="8"/>
       <c r="K145" s="8"/>
       <c r="L145" s="9">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="M145" s="9"/>
       <c t="s" r="N145" s="7">
@@ -4953,13 +4962,13 @@
       <c r="F146" s="7"/>
       <c r="G146" s="7"/>
       <c t="s" r="H146" s="8">
-        <v>9</v>
+        <v>191</v>
       </c>
       <c r="I146" s="8"/>
       <c r="J146" s="8"/>
       <c r="K146" s="8"/>
       <c r="L146" s="9">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="M146" s="9"/>
       <c t="s" r="N146" s="7">
@@ -4971,7 +4980,7 @@
         <v>144</v>
       </c>
       <c t="s" r="B147" s="7">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C147" s="7"/>
       <c r="D147" s="7"/>
@@ -4979,13 +4988,13 @@
       <c r="F147" s="7"/>
       <c r="G147" s="7"/>
       <c t="s" r="H147" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I147" s="8"/>
       <c r="J147" s="8"/>
       <c r="K147" s="8"/>
       <c r="L147" s="9">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="M147" s="9"/>
       <c t="s" r="N147" s="7">
@@ -4997,7 +5006,7 @@
         <v>145</v>
       </c>
       <c t="s" r="B148" s="7">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C148" s="7"/>
       <c r="D148" s="7"/>
@@ -5005,13 +5014,13 @@
       <c r="F148" s="7"/>
       <c r="G148" s="7"/>
       <c t="s" r="H148" s="8">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="I148" s="8"/>
       <c r="J148" s="8"/>
       <c r="K148" s="8"/>
       <c r="L148" s="9">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="M148" s="9"/>
       <c t="s" r="N148" s="7">
@@ -5023,7 +5032,7 @@
         <v>146</v>
       </c>
       <c t="s" r="B149" s="7">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C149" s="7"/>
       <c r="D149" s="7"/>
@@ -5031,13 +5040,13 @@
       <c r="F149" s="7"/>
       <c r="G149" s="7"/>
       <c t="s" r="H149" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I149" s="8"/>
       <c r="J149" s="8"/>
       <c r="K149" s="8"/>
       <c r="L149" s="9">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="M149" s="9"/>
       <c t="s" r="N149" s="7">
@@ -5049,7 +5058,7 @@
         <v>147</v>
       </c>
       <c t="s" r="B150" s="7">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C150" s="7"/>
       <c r="D150" s="7"/>
@@ -5057,13 +5066,13 @@
       <c r="F150" s="7"/>
       <c r="G150" s="7"/>
       <c t="s" r="H150" s="8">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="I150" s="8"/>
       <c r="J150" s="8"/>
       <c r="K150" s="8"/>
       <c r="L150" s="9">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="M150" s="9"/>
       <c t="s" r="N150" s="7">
@@ -5075,7 +5084,7 @@
         <v>148</v>
       </c>
       <c t="s" r="B151" s="7">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C151" s="7"/>
       <c r="D151" s="7"/>
@@ -5083,13 +5092,13 @@
       <c r="F151" s="7"/>
       <c r="G151" s="7"/>
       <c t="s" r="H151" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I151" s="8"/>
       <c r="J151" s="8"/>
       <c r="K151" s="8"/>
       <c r="L151" s="9">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="M151" s="9"/>
       <c t="s" r="N151" s="7">
@@ -5101,7 +5110,7 @@
         <v>149</v>
       </c>
       <c t="s" r="B152" s="7">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C152" s="7"/>
       <c r="D152" s="7"/>
@@ -5109,17 +5118,17 @@
       <c r="F152" s="7"/>
       <c r="G152" s="7"/>
       <c t="s" r="H152" s="8">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="I152" s="8"/>
       <c r="J152" s="8"/>
       <c r="K152" s="8"/>
       <c r="L152" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M152" s="9"/>
       <c t="s" r="N152" s="7">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="153" ht="25.5" customHeight="1">
@@ -5127,7 +5136,7 @@
         <v>150</v>
       </c>
       <c t="s" r="B153" s="7">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C153" s="7"/>
       <c r="D153" s="7"/>
@@ -5135,13 +5144,13 @@
       <c r="F153" s="7"/>
       <c r="G153" s="7"/>
       <c t="s" r="H153" s="8">
-        <v>198</v>
+        <v>9</v>
       </c>
       <c r="I153" s="8"/>
       <c r="J153" s="8"/>
       <c r="K153" s="8"/>
       <c r="L153" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M153" s="9"/>
       <c t="s" r="N153" s="7">
@@ -5161,17 +5170,17 @@
       <c r="F154" s="7"/>
       <c r="G154" s="7"/>
       <c t="s" r="H154" s="8">
-        <v>200</v>
+        <v>146</v>
       </c>
       <c r="I154" s="8"/>
       <c r="J154" s="8"/>
       <c r="K154" s="8"/>
       <c r="L154" s="9">
-        <v>9.5</v>
+        <v>30</v>
       </c>
       <c r="M154" s="9"/>
       <c t="s" r="N154" s="7">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="155" ht="25.5" customHeight="1">
@@ -5179,7 +5188,7 @@
         <v>152</v>
       </c>
       <c t="s" r="B155" s="7">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
@@ -5187,13 +5196,13 @@
       <c r="F155" s="7"/>
       <c r="G155" s="7"/>
       <c t="s" r="H155" s="8">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="I155" s="8"/>
       <c r="J155" s="8"/>
       <c r="K155" s="8"/>
       <c r="L155" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M155" s="9"/>
       <c t="s" r="N155" s="7">
@@ -5213,13 +5222,13 @@
       <c r="F156" s="7"/>
       <c r="G156" s="7"/>
       <c t="s" r="H156" s="8">
-        <v>9</v>
+        <v>203</v>
       </c>
       <c r="I156" s="8"/>
       <c r="J156" s="8"/>
       <c r="K156" s="8"/>
       <c r="L156" s="9">
-        <v>170</v>
+        <v>9.5</v>
       </c>
       <c r="M156" s="9"/>
       <c t="s" r="N156" s="7">
@@ -5231,7 +5240,7 @@
         <v>154</v>
       </c>
       <c t="s" r="B157" s="7">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C157" s="7"/>
       <c r="D157" s="7"/>
@@ -5239,13 +5248,13 @@
       <c r="F157" s="7"/>
       <c r="G157" s="7"/>
       <c t="s" r="H157" s="8">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="I157" s="8"/>
       <c r="J157" s="8"/>
       <c r="K157" s="8"/>
       <c r="L157" s="9">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="M157" s="9"/>
       <c t="s" r="N157" s="7">
@@ -5257,7 +5266,7 @@
         <v>155</v>
       </c>
       <c t="s" r="B158" s="7">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C158" s="7"/>
       <c r="D158" s="7"/>
@@ -5265,13 +5274,13 @@
       <c r="F158" s="7"/>
       <c r="G158" s="7"/>
       <c t="s" r="H158" s="8">
-        <v>164</v>
+        <v>9</v>
       </c>
       <c r="I158" s="8"/>
       <c r="J158" s="8"/>
       <c r="K158" s="8"/>
       <c r="L158" s="9">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="M158" s="9"/>
       <c t="s" r="N158" s="7">
@@ -5283,7 +5292,7 @@
         <v>156</v>
       </c>
       <c t="s" r="B159" s="7">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C159" s="7"/>
       <c r="D159" s="7"/>
@@ -5291,13 +5300,13 @@
       <c r="F159" s="7"/>
       <c r="G159" s="7"/>
       <c t="s" r="H159" s="8">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c r="I159" s="8"/>
       <c r="J159" s="8"/>
       <c r="K159" s="8"/>
       <c r="L159" s="9">
-        <v>19.199999999999999</v>
+        <v>35</v>
       </c>
       <c r="M159" s="9"/>
       <c t="s" r="N159" s="7">
@@ -5309,7 +5318,7 @@
         <v>157</v>
       </c>
       <c t="s" r="B160" s="7">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C160" s="7"/>
       <c r="D160" s="7"/>
@@ -5317,13 +5326,13 @@
       <c r="F160" s="7"/>
       <c r="G160" s="7"/>
       <c t="s" r="H160" s="8">
-        <v>20</v>
+        <v>167</v>
       </c>
       <c r="I160" s="8"/>
       <c r="J160" s="8"/>
       <c r="K160" s="8"/>
       <c r="L160" s="9">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="M160" s="9"/>
       <c t="s" r="N160" s="7">
@@ -5335,7 +5344,7 @@
         <v>158</v>
       </c>
       <c t="s" r="B161" s="7">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C161" s="7"/>
       <c r="D161" s="7"/>
@@ -5343,13 +5352,13 @@
       <c r="F161" s="7"/>
       <c r="G161" s="7"/>
       <c t="s" r="H161" s="8">
-        <v>72</v>
+        <v>178</v>
       </c>
       <c r="I161" s="8"/>
       <c r="J161" s="8"/>
       <c r="K161" s="8"/>
       <c r="L161" s="9">
-        <v>25</v>
+        <v>19.199999999999999</v>
       </c>
       <c r="M161" s="9"/>
       <c t="s" r="N161" s="7">
@@ -5361,7 +5370,7 @@
         <v>159</v>
       </c>
       <c t="s" r="B162" s="7">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
@@ -5369,13 +5378,13 @@
       <c r="F162" s="7"/>
       <c r="G162" s="7"/>
       <c t="s" r="H162" s="8">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="I162" s="8"/>
       <c r="J162" s="8"/>
       <c r="K162" s="8"/>
       <c r="L162" s="9">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="M162" s="9"/>
       <c t="s" r="N162" s="7">
@@ -5387,7 +5396,7 @@
         <v>160</v>
       </c>
       <c t="s" r="B163" s="7">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
@@ -5395,13 +5404,13 @@
       <c r="F163" s="7"/>
       <c r="G163" s="7"/>
       <c t="s" r="H163" s="8">
-        <v>175</v>
+        <v>73</v>
       </c>
       <c r="I163" s="8"/>
       <c r="J163" s="8"/>
       <c r="K163" s="8"/>
       <c r="L163" s="9">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="M163" s="9"/>
       <c t="s" r="N163" s="7">
@@ -5413,7 +5422,7 @@
         <v>161</v>
       </c>
       <c t="s" r="B164" s="7">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
@@ -5421,13 +5430,13 @@
       <c r="F164" s="7"/>
       <c r="G164" s="7"/>
       <c t="s" r="H164" s="8">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="I164" s="8"/>
       <c r="J164" s="8"/>
       <c r="K164" s="8"/>
       <c r="L164" s="9">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="M164" s="9"/>
       <c t="s" r="N164" s="7">
@@ -5439,7 +5448,7 @@
         <v>162</v>
       </c>
       <c t="s" r="B165" s="7">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
@@ -5447,13 +5456,13 @@
       <c r="F165" s="7"/>
       <c r="G165" s="7"/>
       <c t="s" r="H165" s="8">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="I165" s="8"/>
       <c r="J165" s="8"/>
       <c r="K165" s="8"/>
       <c r="L165" s="9">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="M165" s="9"/>
       <c t="s" r="N165" s="7">
@@ -5473,13 +5482,13 @@
       <c r="F166" s="7"/>
       <c r="G166" s="7"/>
       <c t="s" r="H166" s="8">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I166" s="8"/>
       <c r="J166" s="8"/>
       <c r="K166" s="8"/>
       <c r="L166" s="9">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="M166" s="9"/>
       <c t="s" r="N166" s="7">
@@ -5499,13 +5508,13 @@
       <c r="F167" s="7"/>
       <c r="G167" s="7"/>
       <c t="s" r="H167" s="8">
-        <v>143</v>
+        <v>215</v>
       </c>
       <c r="I167" s="8"/>
       <c r="J167" s="8"/>
       <c r="K167" s="8"/>
       <c r="L167" s="9">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="M167" s="9"/>
       <c t="s" r="N167" s="7">
@@ -5517,7 +5526,7 @@
         <v>165</v>
       </c>
       <c t="s" r="B168" s="7">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
@@ -5525,13 +5534,13 @@
       <c r="F168" s="7"/>
       <c r="G168" s="7"/>
       <c t="s" r="H168" s="8">
-        <v>212</v>
+        <v>20</v>
       </c>
       <c r="I168" s="8"/>
       <c r="J168" s="8"/>
       <c r="K168" s="8"/>
       <c r="L168" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M168" s="9"/>
       <c t="s" r="N168" s="7">
@@ -5543,7 +5552,7 @@
         <v>166</v>
       </c>
       <c t="s" r="B169" s="7">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C169" s="7"/>
       <c r="D169" s="7"/>
@@ -5551,13 +5560,13 @@
       <c r="F169" s="7"/>
       <c r="G169" s="7"/>
       <c t="s" r="H169" s="8">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="I169" s="8"/>
       <c r="J169" s="8"/>
       <c r="K169" s="8"/>
       <c r="L169" s="9">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="M169" s="9"/>
       <c t="s" r="N169" s="7">
@@ -5569,7 +5578,7 @@
         <v>167</v>
       </c>
       <c t="s" r="B170" s="7">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C170" s="7"/>
       <c r="D170" s="7"/>
@@ -5577,13 +5586,13 @@
       <c r="F170" s="7"/>
       <c r="G170" s="7"/>
       <c t="s" r="H170" s="8">
-        <v>8</v>
+        <v>215</v>
       </c>
       <c r="I170" s="8"/>
       <c r="J170" s="8"/>
       <c r="K170" s="8"/>
       <c r="L170" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M170" s="9"/>
       <c t="s" r="N170" s="7">
@@ -5595,7 +5604,7 @@
         <v>168</v>
       </c>
       <c t="s" r="B171" s="7">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C171" s="7"/>
       <c r="D171" s="7"/>
@@ -5603,7 +5612,7 @@
       <c r="F171" s="7"/>
       <c r="G171" s="7"/>
       <c t="s" r="H171" s="8">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="I171" s="8"/>
       <c r="J171" s="8"/>
@@ -5621,7 +5630,7 @@
         <v>169</v>
       </c>
       <c t="s" r="B172" s="7">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C172" s="7"/>
       <c r="D172" s="7"/>
@@ -5629,13 +5638,13 @@
       <c r="F172" s="7"/>
       <c r="G172" s="7"/>
       <c t="s" r="H172" s="8">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="I172" s="8"/>
       <c r="J172" s="8"/>
       <c r="K172" s="8"/>
       <c r="L172" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M172" s="9"/>
       <c t="s" r="N172" s="7">
@@ -5643,37 +5652,89 @@
       </c>
     </row>
     <row r="173" ht="25.5" customHeight="1">
-      <c r="K173" s="10">
-        <v>10866.31</v>
-      </c>
-      <c r="L173" s="10"/>
-      <c r="M173" s="10"/>
-      <c r="N173" s="10"/>
-    </row>
-    <row r="174" ht="17.25" customHeight="1">
-      <c t="s" r="A174" s="11">
-        <v>220</v>
-      </c>
-      <c r="B174" s="11"/>
-      <c r="C174" s="11"/>
-      <c r="D174" s="11"/>
-      <c r="E174" s="11"/>
-      <c t="s" r="F174" s="12">
+      <c r="A173" s="6">
+        <v>170</v>
+      </c>
+      <c t="s" r="B173" s="7">
         <v>221</v>
       </c>
-      <c r="G174" s="12"/>
-      <c r="H174" s="13"/>
-      <c t="s" r="I174" s="14">
+      <c r="C173" s="7"/>
+      <c r="D173" s="7"/>
+      <c r="E173" s="7"/>
+      <c r="F173" s="7"/>
+      <c r="G173" s="7"/>
+      <c t="s" r="H173" s="8">
+        <v>11</v>
+      </c>
+      <c r="I173" s="8"/>
+      <c r="J173" s="8"/>
+      <c r="K173" s="8"/>
+      <c r="L173" s="9">
+        <v>40</v>
+      </c>
+      <c r="M173" s="9"/>
+      <c t="s" r="N173" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="174" ht="24.75" customHeight="1">
+      <c r="A174" s="6">
+        <v>171</v>
+      </c>
+      <c t="s" r="B174" s="7">
         <v>222</v>
       </c>
-      <c r="J174" s="14"/>
-      <c r="K174" s="14"/>
-      <c r="L174" s="14"/>
-      <c r="M174" s="14"/>
-      <c r="N174" s="14"/>
+      <c r="C174" s="7"/>
+      <c r="D174" s="7"/>
+      <c r="E174" s="7"/>
+      <c r="F174" s="7"/>
+      <c r="G174" s="7"/>
+      <c t="s" r="H174" s="8">
+        <v>73</v>
+      </c>
+      <c r="I174" s="8"/>
+      <c r="J174" s="8"/>
+      <c r="K174" s="8"/>
+      <c r="L174" s="9">
+        <v>30</v>
+      </c>
+      <c r="M174" s="9"/>
+      <c t="s" r="N174" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="175" ht="26.25" customHeight="1">
+      <c r="K175" s="10">
+        <v>10979.31</v>
+      </c>
+      <c r="L175" s="10"/>
+      <c r="M175" s="10"/>
+      <c r="N175" s="10"/>
+    </row>
+    <row r="176" ht="16.5" customHeight="1">
+      <c t="s" r="A176" s="11">
+        <v>223</v>
+      </c>
+      <c r="B176" s="11"/>
+      <c r="C176" s="11"/>
+      <c r="D176" s="11"/>
+      <c r="E176" s="11"/>
+      <c t="s" r="F176" s="12">
+        <v>224</v>
+      </c>
+      <c r="G176" s="12"/>
+      <c r="H176" s="13"/>
+      <c t="s" r="I176" s="14">
+        <v>225</v>
+      </c>
+      <c r="J176" s="14"/>
+      <c r="K176" s="14"/>
+      <c r="L176" s="14"/>
+      <c r="M176" s="14"/>
+      <c r="N176" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="518">
+  <mergeCells count="524">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -6188,10 +6249,16 @@
     <mergeCell ref="B172:G172"/>
     <mergeCell ref="H172:K172"/>
     <mergeCell ref="L172:M172"/>
-    <mergeCell ref="K173:N173"/>
-    <mergeCell ref="A174:E174"/>
-    <mergeCell ref="F174:G174"/>
-    <mergeCell ref="I174:N174"/>
+    <mergeCell ref="B173:G173"/>
+    <mergeCell ref="H173:K173"/>
+    <mergeCell ref="L173:M173"/>
+    <mergeCell ref="B174:G174"/>
+    <mergeCell ref="H174:K174"/>
+    <mergeCell ref="L174:M174"/>
+    <mergeCell ref="K175:N175"/>
+    <mergeCell ref="A176:E176"/>
+    <mergeCell ref="F176:G176"/>
+    <mergeCell ref="I176:N176"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
